--- a/Data_Tables/B1_POGOJ_ATRIBUT_STOPNJA.xlsx
+++ b/Data_Tables/B1_POGOJ_ATRIBUT_STOPNJA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>FIKSNI_ODSTOTEK</t>
+  </si>
+  <si>
+    <t>ATRIBUT_ID</t>
+  </si>
+  <si>
+    <t>ATRIBUT_OPIS</t>
   </si>
   <si>
     <t>&lt;=</t>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" s="6" t="s">
@@ -486,6 +492,12 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="15">
       <c r="A2" s="1">
@@ -498,25 +510,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1">
         <v>0.33</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" ht="15">
       <c r="A3" s="1">
@@ -529,25 +543,27 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>0.66</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" ht="15">
       <c r="A4" s="1">
@@ -560,25 +576,27 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" ht="15">
       <c r="A5" s="1">
@@ -591,25 +609,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>0.33</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" ht="15">
       <c r="A6" s="1">
@@ -622,25 +642,27 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>0.66</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" ht="15">
       <c r="A7" s="1">
@@ -653,25 +675,27 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
